--- a/PTiPM/Check_List_Test.xlsx
+++ b/PTiPM/Check_List_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54ab689f79f91476/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB72844B27DD6C4A5ADEDD9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DA94D63-A20F-45F2-A88E-957961C8735A}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DF75460589B3ACB72844B27DD6C4A5ADEDD9B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39F2C097-77B3-4EF7-A2AB-02C7608361B3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>Название приложения:</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Успешное истечение кода</t>
+  </si>
+  <si>
+    <t>Блокировка аккаунта после 3 неверных попыток</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -264,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,8 +283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -301,43 +313,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -350,16 +325,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,14 +341,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,21 +637,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58" style="7" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="43" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="58" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" style="4" customWidth="1"/>
+    <col min="3" max="4" width="43.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +661,11 @@
       <c r="C1" s="2">
         <v>45590</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="12">
+        <v>45597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -699,701 +675,785 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
       <c r="B27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
       <c r="B28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
       <c r="B29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="9" t="s">
+      <c r="C31" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="9" t="s">
+      <c r="C32" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="9" t="s">
+      <c r="C33" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="9" t="s">
+      <c r="C36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="9" t="s">
+      <c r="C37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="9" t="s">
+      <c r="C38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="9" t="s">
+      <c r="C39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="9" t="s">
+      <c r="C41" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="9" t="s">
+      <c r="C42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="9" t="s">
+      <c r="C43" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="9" t="s">
+      <c r="C44" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
+      <c r="C45" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="9" t="s">
+      <c r="C46" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9" t="s">
+      <c r="C47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="9" t="s">
+      <c r="C48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="9" t="s">
+      <c r="C49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="9" t="s">
+      <c r="C50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="9" t="s">
+      <c r="C53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="9" t="s">
+      <c r="C54" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="9" t="s">
+      <c r="C55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="9" t="s">
+      <c r="C56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="9" t="s">
+      <c r="C57" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B59" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="9" t="s">
+      <c r="C59" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="9" t="s">
+      <c r="C60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="9" t="s">
+      <c r="C62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="9"/>
+    </row>
+    <row r="63" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="9" t="s">
+      <c r="C63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="9" t="s">
+      <c r="C64" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="C65" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="9"/>
+    </row>
+    <row r="69" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="C70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="8"/>
-    </row>
-    <row r="73" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-    </row>
-    <row r="74" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-    </row>
-    <row r="75" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-    </row>
-    <row r="76" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-    </row>
-    <row r="77" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-    </row>
-    <row r="78" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-    </row>
-    <row r="79" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-    </row>
-    <row r="80" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
+      <c r="C72" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A31:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="A58:A63"/>
     <mergeCell ref="A3:A22"/>
     <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="A31:A45"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A59:A64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
